--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -89,21 +89,1337 @@
 https://academy-family.ru/page32;</t>
   </si>
   <si>
-    <t>8 (904) 127-00-03;
-70281042111;
-81014525000;
-8-914-916-9232;
-8 (983) 242 94 11;
-8 983 242 94 11;
-+79500876262;</t>
-  </si>
-  <si>
-    <t>info@academy-family.ru;
-direct.family@zelnoross.ru;
-or@zelnoross.ru;</t>
+    <t>https://t.me/family_academy_angarsk;</t>
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>mamatov.club</t>
+  </si>
+  <si>
+    <t>mamatov.com</t>
+  </si>
+  <si>
+    <t>https://mamatov.club;
+https://mamatov.com/;</t>
+  </si>
+  <si>
+    <t>https://t.me/mamatovcom;</t>
+  </si>
+  <si>
+    <t>get.uniprof-med.ru</t>
+  </si>
+  <si>
+    <t>uniprof-med.ru</t>
+  </si>
+  <si>
+    <t>https://get.uniprof-med.ru;
+https://get.uniprof-med.ru/login;
+https://get.uniprof-med.ru/cms/system/login;
+https://get.uniprof-med.ru/politika;
+https://uniprof-med.ru/politika;
+https://get.uniprof-med.ru/soglasie;
+https://uniprof-med.ru/soglasie;
+https://get.uniprof-med.ru/oferta;
+https://uniprof-med.ru/oferta;
+https://get.uniprof-med.ru/chtm/s/metric/clarity.js;
+https://get.uniprof-med.ru/chtm/app/gc-messengers/scriptJS.tsx;</t>
+  </si>
+  <si>
+    <t>https://t.me/uniprof_med;</t>
+  </si>
+  <si>
+    <t>huriza.online</t>
+  </si>
+  <si>
+    <t>https://huriza.online;
+https://huriza.online/login;
+https://huriza.online/cms/system/login;
+https://huriza.online/pl/fileservice/user/file/download;
+https://huriza.online/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>academy.magarmida.ru</t>
+  </si>
+  <si>
+    <t>https://academy.magarmida.ru;
+https://academy.magarmida.ru/magia_dushi;
+https://academy.magarmida.ru/pl/cms/page/editor;
+https://academy.magarmida.ru/pl/lite/block-public/process;
+https://academy.magarmida.ru/cms/system/contact;
+https://academy.magarmida.ru/c...&lt;/a&gt;&lt;/p&gt;;
+https://academy.magarmida.ru/politikakonfedicialnosti;
+https://academy.magarmida.ru/soglashenie;
+https://academy.magarmida.ru/pravila_obychenia;
+https://academy.magarmida.ru/chtm/s/metric/clarity.js;
+https://academy.magarmida.ru/pl/cms/layout/css;
+https://academy.magarmida.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>https://t.me/academymagic;</t>
+  </si>
+  <si>
+    <t>paulaseagull.ru</t>
+  </si>
+  <si>
+    <t>https://paulaseagull.ru;</t>
+  </si>
+  <si>
+    <t>pytiksebe.ru</t>
+  </si>
+  <si>
+    <t>https://pytiksebe.ru;
+https://pytiksebe.ru/;
+https://pytiksebe.ru/pl/cms/layout/css;
+https://pytiksebe.ru/kyrs_chakras;
+https://pytiksebe.ru/pl/lite/block-public/process;
+https://pytiksebe.ru/aura;
+https://pytiksebe.ru/chtm/s/metric/clarity.js;
+https://pytiksebe.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>https://t.me/putksebe_center;</t>
+  </si>
+  <si>
+    <t>gc.ksamata.ru</t>
+  </si>
+  <si>
+    <t>https://gc.ksamata.ru;
+https://gc.ksamata.ru/home;
+https://gc.ksamata.ru/;
+https://gc.ksamata.ru/cms/system/login;
+https://gc.ksamata.ru/chtm/s/metric/clarity.js;
+https://gc.ksamata.ru/help;</t>
+  </si>
+  <si>
+    <t>universus.pro</t>
+  </si>
+  <si>
+    <t>universuspro.ru</t>
+  </si>
+  <si>
+    <t>https://universus.pro;
+https://universuspro.ru/?utm_source=universus.pro;
+https://universuspro.ru/;
+https://universuspro.ru/accreditation;
+https://universuspro.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>chuprova-tanya.ru</t>
+  </si>
+  <si>
+    <t>https://chuprova-tanya.ru;
+https://chuprova-tanya.ru/loggin;
+https://chuprova-tanya.ru/pl/lite/block-public/process;
+https://chuprova-tanya.ru/chtm/s/metric/clarity.js;
+https://chuprova-tanya.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>kabinet.shkolavideo.ru</t>
+  </si>
+  <si>
+    <t>https://kabinet.shkolavideo.ru;
+https://kabinet.shkolavideo.ru/authorization;
+https://kabinet.shkolavideo.ru/pl/lite/block-public/process;
+https://kabinet.shkolavideo.ru/chtm/s/metric/clarity.js;
+https://kabinet.shkolavideo.ru/achiev;
+https://kabinet.shkolavideo.ru/cms/system/login?required=true;
+https://kabinet.shkolavideo.ru/authorization?required=true;
+https://kabinet.shkolavideo.ru/pl/cms/layout/js;
+https://kabinet.shkolavideo.ru/pl/cms/layout/css;</t>
+  </si>
+  <si>
+    <t>https://universuspro.ru;
+https://universuspro.ru/;
+https://universuspro.ru/accreditation;
+https://universuspro.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>sk.savskaya.com</t>
+  </si>
+  <si>
+    <t>https://sk.savskaya.com;
+https://sk.savskaya.com/login;
+https://sk.savskaya.com/cms/system/login;
+https://sk.savskaya.com/chtm/s/metric/clarity.js;
+https://sk.savskaya.com/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>ovitta-online.com</t>
+  </si>
+  <si>
+    <t>ww25.ovitta-online.com</t>
+  </si>
+  <si>
+    <t>https://ovitta-online.com;
+http://ww25.ovitta-online.com/?subid1=20250417-0532-33f5-a73c-e60b0eae662b;</t>
+  </si>
+  <si>
+    <t>apartmentsschool.ru</t>
+  </si>
+  <si>
+    <t>https://apartmentsschool.ru;</t>
+  </si>
+  <si>
+    <t>school.silavmisli.ru</t>
+  </si>
+  <si>
+    <t>https://school.silavmisli.ru;
+https://school.silavmisli.ru/login;
+https://school.silavmisli.ru/cms/system/login;
+https://school.silavmisli.ru/chtm/s/metric/clarity.js;
+https://school.silavmisli.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>mankov.online</t>
+  </si>
+  <si>
+    <t>https://mankov.online;
+https://mankov.online/home/ArtMak;
+https://mankov.online/home/artmak;
+https://mankov.online/art_student;
+https://mankov.online/cms/system/login;
+https://mankov.online/pl/lite/block-public/process;
+https://mankov.online/oferta;
+https://mankov.online/cms/system/legal;
+https://mankov.online/cms/system/contact;
+https://mankov.online/chtm/s/metric/clarity.js;
+https://mankov.online/ArtMak;
+https://mankov.online/shop_kurs;</t>
+  </si>
+  <si>
+    <t>https://t.me/risovaniemak;</t>
+  </si>
+  <si>
+    <t>school.socrates.pro</t>
+  </si>
+  <si>
+    <t>https://school.socrates.pro;
+https://school.socrates.pro/login;
+https://school.socrates.pro/cms/system/login;
+https://school.socrates.pro/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>elenaalybaeva.ru</t>
+  </si>
+  <si>
+    <t>https://elenaalybaeva.ru;
+https://elenaalybaeva.ru/login;
+https://elenaalybaeva.ru/cms/system/login;
+https://elenaalybaeva.ru/chtm/s/metric/clarity.js;
+https://elenaalybaeva.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>reinkarnaciologiya.ru</t>
+  </si>
+  <si>
+    <t>https://reinkarnaciologiya.ru;
+https://reinkarnaciologiya.ru/blog?tagNames=%D0%BA%D0%BB%D1%83%D0%B1;
+https://reinkarnaciologiya.ru/blog;
+https://reinkarnaciologiya.ru/maris-tarif-zritel-4888;
+https://reinkarnaciologiya.ru/klub-rri-tarifi;
+https://reinkarnaciologiya.ru/pl/fileservice/user/file/download/h/b65235f9e02654f4d8498dd81fef9af5.pdf;
+https://reinkarnaciologiya.ru/pl/fileservice/user/file/download/h/4aaf2c9d3d42e5efff0f4cc69314a1a4.pdf;
+https://reinkarnaciologiya.ru/;
+https://reinkarnaciologiya.ru/cms/system/contact;
+https://reinkarnaciologiya.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/reinkarnaciolog;
+https://t.me/MarisDresmanis;
+https://t.me/ReinkarnacionikaGetcourseBot;</t>
+  </si>
+  <si>
+    <t>imram.getcourse.ru</t>
+  </si>
+  <si>
+    <t>edu.imram-kriya.com</t>
+  </si>
+  <si>
+    <t>https://imram.getcourse.ru;
+https://edu.imram-kriya.com/cms/system/login;
+https://edu.imram-kriya.com/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>pro.dmitriydyakov.ru</t>
+  </si>
+  <si>
+    <t>https://pro.dmitriydyakov.ru;
+https://pro.dmitriydyakov.ru/login;
+https://pro.dmitriydyakov.ru/cms/system/login;
+https://pro.dmitriydyakov.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>bizclub.info</t>
+  </si>
+  <si>
+    <t>https://bizclub.info;
+https://bizclub.info/login;
+https://bizclub.info/cms/system/login;
+https://bizclub.info/chtm/s/metric/clarity.js;
+https://bizclub.info/club_marketolog;
+https://bizclub.info/stop;</t>
+  </si>
+  <si>
+    <t>sunteam.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://sunteam.getcourse.ru;
+https://sunteam.getcourse.ru/login;
+https://sunteam.getcourse.ru/cms/system/login;
+https://sunteam.getcourse.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>wnature.pro</t>
+  </si>
+  <si>
+    <t>https://wnature.pro;
+https://wnature.pro/;
+https://wnature.pro/personal;
+https://wnature.pro/oferta2;
+https://wnature.pro/my;
+https://wnature.pro/pl/my;
+https://wnature.pro/cms/system/login?required=true;
+https://wnature.pro/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>iscelenie-course.ru</t>
+  </si>
+  <si>
+    <t>https://iscelenie-course.ru;
+https://iscelenie-course.ru/login;
+https://iscelenie-course.ru/cms/system/login;
+https://iscelenie-course.ru/chtm/s/metric/clarity.js;
+https://iscelenie-course.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>volkovatatyana.ru</t>
+  </si>
+  <si>
+    <t>https://volkovatatyana.ru;
+https://volkovatatyana.ru/login;
+https://volkovatatyana.ru/cms/system/login;
+https://volkovatatyana.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>icca.academy</t>
+  </si>
+  <si>
+    <t>https://icca.academy;
+https://icca.academy/login;
+https://icca.academy/cms/system/login;
+https://icca.academy/chtm/s/metric/clarity.js;
+https://icca.academy/pl/cms/layout/css;
+https://icca.academy/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>lk.brain-games.ru</t>
+  </si>
+  <si>
+    <t>https://lk.brain-games.ru;
+https://lk.brain-games.ru/;
+https://lk.brain-games.ru/pl/cms/layout/js;
+https://lk.brain-games.ru/pl/lite/block-public/process;
+https://lk.brain-games.ru/c_m;
+https://lk.brain-games.ru/chtm/s/metric/clarity.js;
+https://lk.brain-games.ru/chtm/app/dev-glossary/glossary.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/kurpatov_academy;</t>
+  </si>
+  <si>
+    <t>oigra.ru</t>
+  </si>
+  <si>
+    <t>https://oigra.ru;</t>
+  </si>
+  <si>
+    <t>wonder.lawyer</t>
+  </si>
+  <si>
+    <t>https://wonder.lawyer;
+https://wonder.lawyer/main;
+https://wonder.lawyer/pl/lite/block-public/process;
+https://wonder.lawyer/specialization;
+https://wonder.lawyer/strategy;
+https://wonder.lawyer/myfees;
+https://wonder.lawyer/offer;
+https://wonder.lawyer/cms/system/legal;
+https://wonder.lawyer/help;
+https://wonder.lawyer/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>school.psfa.academy</t>
+  </si>
+  <si>
+    <t>https://school.psfa.academy;
+https://school.psfa.academy/login;
+https://school.psfa.academy/cms/system/login;
+https://school.psfa.academy/chtm/s/metric/clarity.js;
+https://school.psfa.academy/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>ilmirbz.ru</t>
+  </si>
+  <si>
+    <t>https://ilmirbz.ru;
+https://ilmirbz.ru/login;
+https://ilmirbz.ru/cms/system/login;
+https://ilmirbz.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>kurs.vremeny.net</t>
+  </si>
+  <si>
+    <t>https://kurs.vremeny.net;
+https://kurs.vremeny.net/login;
+https://kurs.vremeny.net/cms/system/login;
+https://kurs.vremeny.net/chtm/s/metric/clarity.js;
+https://kurs.vremeny.net/teach/control/stream/view/id/39669892;
+https://kurs.vremeny.net/cms/system/login?required=true;</t>
+  </si>
+  <si>
+    <t>tvoyklub.online</t>
+  </si>
+  <si>
+    <t>https://tvoyklub.online;
+https://tvoyklub.online/home;
+https://tvoyklub.online/cms/system/login?required=true;
+https://tvoyklub.online/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>school.scientific-psychology.ru</t>
+  </si>
+  <si>
+    <t>ekaterinalevina.ru</t>
+  </si>
+  <si>
+    <t>https://school.scientific-psychology.ru;
+https://ekaterinalevina.ru/relationship_audit?utm_source=gc;
+https://ekaterinalevina.ru;
+https://school.scientific-psychology.ru/privacy;
+https://school.scientific-psychology.ru/pl/lite/widget/script;
+https://school.scientific-psychology.ru/offering;</t>
+  </si>
+  <si>
+    <t>https://t.me/tatsiana_sav;</t>
+  </si>
+  <si>
+    <t>online.academiamillionerov.ru</t>
+  </si>
+  <si>
+    <t>https://online.academiamillionerov.ru;
+https://online.academiamillionerov.ru/cms/system/login;
+https://online.academiamillionerov.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>my.bbooster.online</t>
+  </si>
+  <si>
+    <t>https://my.bbooster.online;
+https://my.bbooster.online/program;
+https://my.bbooster.online/conf_policy;
+https://my.bbooster.online/cookie_policy;
+https://my.bbooster.online/cms/system/login;
+https://my.bbooster.online/training_check;
+https://my.bbooster.online/pl/lite/block-public/process;
+https://my.bbooster.online/chtm/s/metric/clarity.js;
+https://my.bbooster.online/pl/cms/layout/css;
+https://my.bbooster.online/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>nakonechna.club</t>
+  </si>
+  <si>
+    <t>https://nakonechna.club;
+https://nakonechna.club/login;
+https://nakonechna.club/cms/system/login;
+https://nakonechna.club/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>online.burmaka.com</t>
+  </si>
+  <si>
+    <t>https://online.burmaka.com;
+https://online.burmaka.com/login;
+https://online.burmaka.com/cms/system/login;
+https://online.burmaka.com/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>andreyinfo.ru</t>
+  </si>
+  <si>
+    <t>https://andreyinfo.ru;</t>
+  </si>
+  <si>
+    <t>online.narezultat.com</t>
+  </si>
+  <si>
+    <t>https://online.narezultat.com;</t>
+  </si>
+  <si>
+    <t>clfin.online</t>
+  </si>
+  <si>
+    <t>https://clfin.online;
+https://clfin.online/page92;
+https://clfin.online/FinancialCompetenceLanding_copy;
+https://clfin.online/page102;
+https://clfin.online/page86;
+https://clfin.online/page86_copy;
+https://clfin.online/master-klass-po-lichnym-finansam-1;
+https://clfin.online/page116;
+https://clfin.online/nalogovyj-vychet-chek-list;
+https://clfin.online/page113;
+https://clfin.online/page99;
+https://clfin.online/10-sposobov-kupit-kvartiru-bez-ipoteki;
+https://clfin.online/sam-sebe-finansovyj-ehkspert_copy;
+https://clfin.online/sam-sebe-finansovyj-expert_onlain;
+https://clfin.online/page85_copy-2;
+https://clfin.online/page96;
+https://clfin.online/nalogovyj-vychet;
+https://clfin.online/page120;
+https://clfin.online/page117;
+https://clfin.online/cashflow;
+https://clfin.online/page115;
+https://clfin.online/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>schoolsmart.ru</t>
+  </si>
+  <si>
+    <t>https://schoolsmart.ru;
+https://schoolsmart.ru/;
+https://schoolsmart.ru/pl/lite/block-public/process;
+https://schoolsmart.ru/kak-repetitoru-najti-uchenikov-i-zarabatyvat-onlajn;
+https://schoolsmart.ru/kak-sozdat-i-zapustit-repetitoru-onlajn-kursy-i-shkolu;
+https://schoolsmart.ru/otzyvy-yurij-spivak;
+https://schoolsmart.ru/rezultati-repetitorov;
+https://schoolsmart.ru/teach/control;
+https://schoolsmart.ru/cms/system/login?required=true;
+https://schoolsmart.ru/chtm/s/metric/clarity.js;
+https://schoolsmart.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>go.alexdavydov.pro</t>
+  </si>
+  <si>
+    <t>https://go.alexdavydov.pro;</t>
+  </si>
+  <si>
+    <t>fin-1.com</t>
+  </si>
+  <si>
+    <t>fin-1.ru</t>
+  </si>
+  <si>
+    <t>https://fin-1.com;
+https://fin-1.ru/7secweb?utm_source=getc;
+https://fin-1.ru/7secweb;
+https://fin-1.ru/7sec_stream;
+https://fin-1.ru/7sec_stream&lt;/a&gt;;
+https://fin-1.com/pl/lite/widget/script;
+https://fin-1.com/confidence;</t>
+  </si>
+  <si>
+    <t>app.geniusenglish.ru</t>
+  </si>
+  <si>
+    <t>https://app.geniusenglish.ru;
+https://app.geniusenglish.ru/;
+https://app.geniusenglish.ru/pl/lite/block-public/process;
+https://app.geniusenglish.ru/teach/control/stream/view/id/5503786;
+https://app.geniusenglish.ru/cms/system/login?required=true;
+https://app.geniusenglish.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>dzverev.ru</t>
+  </si>
+  <si>
+    <t>https://dzverev.ru;
+https://dzverev.ru/osn;
+https://dzverev.ru/login;
+https://dzverev.ru/cms/system/login;
+https://dzverev.ru/cms/system/contact;
+https://dzverev.ru/prdoc;
+https://dzverev.ru/cms/system/legal;
+https://dzverev.ru/catalog-dzverev;
+https://dzverev.ru/pl/fileservice/user/file/download/h/12fb1cb547994175f33e3b1096e50989.pdf;
+https://dzverev.ru/pl/fileservice/user/file/download/h/d71d1b8ebc40b7ff404b5d8cc920c5a4.pdf;
+https://dzverev.ru/pl/fileservice/user/file/download/h/3117e98aa3cc3a914fa573110a45b0aa.pdf;
+https://dzverev.ru/pl/fileservice/user/file/download/h/b84a25fa13614784b522a58c587ee760.pdf;
+https://dzverev.ru/club-total;
+https://dzverev.ru/otz-av;
+https://dzverev.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/zverinfo;
+https://t.me/RusDudnik;
+https://t.me/edtechmagic;
+https://t.me/beton_business;
+https://t.me/westmarketing_ru;
+https://t.me/afanaseva_rimma;
+https://t.me/vitagems_rus;</t>
+  </si>
+  <si>
+    <t>ratnerschool.com</t>
+  </si>
+  <si>
+    <t>sergeyratner.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://ratnerschool.com;
+https://sergeyratner.getcourse.ru/teach/control/stream;
+https://sergeyratner.getcourse.ru/cms/system/login?required=true;
+https://ratnerschool.com/cms/system/legal;
+https://ratnerschool.com/conf;
+https://sergeyratner.getcourse.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>zagorodnikovbiz.ru</t>
+  </si>
+  <si>
+    <t>https://zagorodnikovbiz.ru;
+https://zagorodnikovbiz.ru/;
+https://zagorodnikovbiz.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>altecoschool.ru</t>
+  </si>
+  <si>
+    <t>https://altecoschool.ru;
+https://altecoschool.ru/login;
+https://altecoschool.ru/cms/system/login;
+https://altecoschool.ru/chtm/s/metric/clarity.js;
+https://altecoschool.ru/pl/cms/layout/css;
+https://altecoschool.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>online.juliarts.ru</t>
+  </si>
+  <si>
+    <t>https://online.juliarts.ru;
+https://online.juliarts.ru/julia_asadullina;
+https://online.juliarts.ru/kurs;
+https://online.juliarts.ru/piano_fit;
+https://online.juliarts.ru/let_it_snow;
+https://online.juliarts.ru/club;
+https://online.juliarts.ru/club_vocal;
+https://online.juliarts.ru/kurs_pro;
+https://online.juliarts.ru/jazz_kurs;
+https://online.juliarts.ru/marafon_jazz;
+https://online.juliarts.ru/akkords;
+https://online.juliarts.ru/improvizatiya;
+https://online.juliarts.ru/history;
+https://online.juliarts.ru/relax;
+https://online.juliarts.ru/gyds;
+https://online.juliarts.ru/pl/lite/block-public/process;
+https://online.juliarts.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/Juliart_bot;</t>
+  </si>
+  <si>
+    <t>aida-marketing.ru</t>
+  </si>
+  <si>
+    <t>https://aida-marketing.ru;</t>
+  </si>
+  <si>
+    <t>irinaostashkova.ru</t>
+  </si>
+  <si>
+    <t>https://irinaostashkova.ru;
+https://irinaostashkova.ru/login;
+https://irinaostashkova.ru/cms/system/login;
+https://irinaostashkova.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>pro-zdorovie.com</t>
+  </si>
+  <si>
+    <t>https://pro-zdorovie.com;</t>
+  </si>
+  <si>
+    <t>anasmi.ru</t>
+  </si>
+  <si>
+    <t>https://anasmi.ru;
+https://anasmi.ru/login;
+https://anasmi.ru/cms/system/login;
+https://anasmi.ru/pl/cms/layout/js;
+https://anasmi.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>2021.photoville.ru</t>
+  </si>
+  <si>
+    <t>photoville.ru</t>
+  </si>
+  <si>
+    <t>https://2021.photoville.ru;
+https://photoville.ru/megapolis_2025;
+https://photoville.ru/pl/lite/block-public/process;
+https://2021.photoville.ru/cms/system/legal;
+https://photoville.ru/personal_data;
+https://photoville.ru/oferta;
+https://photoville.ru/tlgrm;
+https://photoville.ru/opentelegram/photovillebot?start=3b7532bb381bfac57296db3f3142837c;
+https://photoville.ru/chtm/s/metric/clarity.js;
+https://photoville.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>https://t.me/photovillebot;</t>
+  </si>
+  <si>
+    <t>courses.neurographics-avdeeva.com</t>
+  </si>
+  <si>
+    <t>https://courses.neurographics-avdeeva.com;
+https://courses.neurographics-avdeeva.com/login;
+https://courses.neurographics-avdeeva.com/cms/system/login;
+https://courses.neurographics-avdeeva.com/chtm/s/metric/clarity.js;
+https://courses.neurographics-avdeeva.com/pl/cms/layout/js;
+https://courses.neurographics-avdeeva.com/pl/cms/layout/css;</t>
+  </si>
+  <si>
+    <t>getcourse.redsmm.ru</t>
+  </si>
+  <si>
+    <t>https://getcourse.redsmm.ru;
+https://getcourse.redsmm.ru/teach/control/stream;
+https://getcourse.redsmm.ru/cms/system/login?required=true;
+https://getcourse.redsmm.ru/chtm/s/metric/clarity.js;
+https://getcourse.redsmm.ru/teach/control/stream/view/id/61702248;
+https://getcourse.redsmm.ru/rating;
+https://getcourse.redsmm.ru/teach/control/stream/view/id/48951093;
+https://getcourse.redsmm.ru/teach/control/stream/view/id/61625879;</t>
+  </si>
+  <si>
+    <t>marinarusakova.ru</t>
+  </si>
+  <si>
+    <t>https://marinarusakova.ru;
+https://marinarusakova.ru/;
+https://marinarusakova.ru/cms/system/login;
+https://marinarusakova.ru/pl/lite/block-public/process;
+https://marinarusakova.ru/politika-konfidentsialnosti;
+https://marinarusakova.ru/biz-politika-obrabotki-personalnyh-dannyh;
+https://marinarusakova.ru/publichnaya-oferta;
+https://marinarusakova.ru/freelessons;
+https://marinarusakova.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/english_rusakova;
+https://t.me/Rusakova_english_bot;</t>
+  </si>
+  <si>
+    <t>cheshirskykot-effect.ru</t>
+  </si>
+  <si>
+    <t>https://cheshirskykot-effect.ru;
+https://cheshirskykot-effect.ru/login;
+https://cheshirskykot-effect.ru/cms/system/login;
+https://cheshirskykot-effect.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>slife.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://slife.getcourse.ru;
+https://slife.getcourse.ru/main;
+https://slife.getcourse.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>proshkola18.ru</t>
+  </si>
+  <si>
+    <t>https://proshkola18.ru;
+https://proshkola18.ru/;
+https://proshkola18.ru/soglasie_ano;
+https://proshkola18.ru/publichnaya_oferta_ano;
+https://proshkola18.ru/partner_instruction;
+https://proshkola18.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>dobrozdrawin3.ru</t>
+  </si>
+  <si>
+    <t>https://dobrozdrawin3.ru;</t>
+  </si>
+  <si>
+    <t>logopedprofiportal.ru</t>
+  </si>
+  <si>
+    <t>https://logopedprofiportal.ru;
+https://logopedprofiportal.ru/;
+https://logopedprofiportal.ru/faop;
+https://logopedprofiportal.ru/schoolwork;
+https://logopedprofiportal.ru/schoolwork_reserve;
+https://logopedprofiportal.ru/mk-arh;
+https://logopedprofiportal.ru/blog;
+https://logopedprofiportal.ru/webinars;
+https://logopedprofiportal.ru/o-portale;
+https://logopedprofiportal.ru/pl/talks/conversation;
+https://logopedprofiportal.ru/cms/system/login?required=true;
+https://logopedprofiportal.ru/about;
+https://logopedprofiportal.ru/search;
+https://logopedprofiportal.ru/cms/system/login;
+https://logopedprofiportal.ru/pl/lite/block-public/process;
+https://logopedprofiportal.ru/dogovor-oferta-kamennyy-gorod;
+https://logopedprofiportal.ru/cms/system/legal;
+https://logopedprofiportal.ru/test-october;
+https://logopedprofiportal.ru/vk;
+https://logopedprofiportal.ru/chtm/s/metric/clarity.js;
+https://logopedprofiportal.ru/pl/user/profile;
+https://logopedprofiportal.ru/pl/fileservice/user/file/download/h/0d792e1ca5599cacfc437c574c8645d1.pdf;</t>
+  </si>
+  <si>
+    <t>procreateschool.online</t>
+  </si>
+  <si>
+    <t>https://procreateschool.online;
+https://procreateschool.online/home;
+https://procreateschool.online/teach/control/stream;
+https://procreateschool.online/cms/system/login?required=true;
+https://procreateschool.online/page541;
+https://procreateschool.online/procreate5;
+https://procreateschool.online/masterprocreate;
+https://procreateschool.online/animation;
+https://procreateschool.online/watercolor;
+https://procreateschool.online/portraitpophoto;
+https://procreateschool.online/event;
+https://procreateschool.online/fashionprofy;
+https://procreateschool.online/postcards;
+https://procreateschool.online/freelancers;
+https://procreateschool.online/figureinspase1;
+https://procreateschool.online/textura;
+https://procreateschool.online/background;
+https://procreateschool.online/interior;
+https://procreateschool.online/lettering;
+https://procreateschool.online/brand;
+https://procreateschool.online/flat_course;
+https://procreateschool.online/collage;
+https://procreateschool.online/strategiauspeha;
+https://procreateschool.online/Beauty;
+https://procreateschool.online/course;
+https://procreateschool.online/jewerly;
+https://procreateschool.online/infographic;
+https://procreateschool.online/brushmaker;
+https://procreateschool.online/instadesign;
+https://procreateschool.online/emotion;
+https://procreateschool.online/bolshescveta;
+https://procreateschool.online/confidential;
+https://procreateschool.online/agreement;
+https://procreateschool.online/cookie;
+https://procreateschool.online/oferta;
+https://procreateschool.online/cms/system/contact;
+https://procreateschool.online/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/procreateschool;</t>
+  </si>
+  <si>
+    <t>embroidery-online.com</t>
+  </si>
+  <si>
+    <t>https://embroidery-online.com;
+https://embroidery-online.com/login;
+https://embroidery-online.com/cms/system/login;
+https://embroidery-online.com/chtm/s/metric/clarity.js;
+https://embroidery-online.com/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>club.tatianaelle.ru</t>
+  </si>
+  <si>
+    <t>https://club.tatianaelle.ru;
+https://club.tatianaelle.ru/home;
+https://club.tatianaelle.ru/pl/lite/block-public/process;
+https://club.tatianaelle.ru/teach/control/stream/view/id/186883990;
+https://club.tatianaelle.ru/cms/system/login?required=true;
+https://club.tatianaelle.ru/teach/control/stream/view/id/186883990&lt;/a&gt;;
+https://club.tatianaelle.ru/teach/control/stream/view/id/186883990&lt;/textarea&gt;;
+https://club.tatianaelle.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>https://t.me/schooltatianaelle;</t>
+  </si>
+  <si>
+    <t>ecotelo.ru</t>
+  </si>
+  <si>
+    <t>https://ecotelo.ru;
+https://ecotelo.ru/home;
+https://ecotelo.ru/ecoclub;
+https://ecotelo.ru/faceyoga21days;
+https://ecotelo.ru/osanka_21day;
+https://ecotelo.ru/smart_detox_30days;
+https://ecotelo.ru/21day;
+https://ecotelo.ru/cms/system/contact;
+https://ecotelo.ru/newtlgrm;
+https://ecotelo.ru/cms/system/legal;
+https://ecotelo.ru/conf_politik;
+https://ecotelo.ru/Oferta;
+https://ecotelo.ru/chtm/s/metric/clarity.js;
+https://ecotelo.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>katrin4s.com</t>
+  </si>
+  <si>
+    <t>https://katrin4s.com;
+http://katrin4s.com/teach/control/stream;
+https://katrin4s.com/teach/control/stream;
+https://katrin4s.com/cms/system/login?required=true;
+https://katrin4s.com/teach/control/stat/userComments/id/;
+https://katrin4s.com/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>chatium.io</t>
+  </si>
+  <si>
+    <t>chatium.ai</t>
+  </si>
+  <si>
+    <t>https://chatium.io;
+https://chatium.ai/;
+https://chatium.ai/app/sender/v2/widget/refunnels~loader/c3DT6aR3gvYBdZ8POae0publi;
+https://chatium.ai/s/static/lib/socket.io.2.3.1.min.js;
+https://chatium.ai/s/static/lib/socket-client.3.min.js;
+https://chatium.ai/s/fs/u/v2.eyJpYXQiOjE3NDQ4MzI1NjR9.6h4g4ynwFdwxz-qAADz0eq33Ls7-Okv3Dmh2ix8MRZ4;
+https://chatium.ai/pages/index/DemoTables~knowledge;
+https://chatium.ai/static/.client/4f59dd47afaa7b19f894ffc97c773485b33a82b1/pages/index/DemoTables.tsx;
+https://chatium.ai/pages/index/DemoTables~products;
+https://chatium.ai/pages/index/DemoTables~orders;</t>
+  </si>
+  <si>
+    <t>https://t.me/demo_support_chatium_bot;
+https://t.me/chatium_ai_help;</t>
+  </si>
+  <si>
+    <t>lk.imsider.ru</t>
+  </si>
+  <si>
+    <t>https://lk.imsider.ru;
+https://lk.imsider.ru/login;
+https://lk.imsider.ru/cms/system/login;
+https://lk.imsider.ru/chtm/s/metric/clarity.js;
+https://lk.imsider.ru/pl/cms/layout/css;
+https://lk.imsider.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>study566.ru</t>
+  </si>
+  <si>
+    <t>https://study566.ru;
+https://study566.ru/;
+https://study566.ru/services;
+https://study566.ru/start;
+https://study566.ru/wd;
+https://study566.ru/pr;
+https://study566.ru/beauty;
+https://study566.ru/date;
+https://study566.ru/child;
+https://study566.ru/usm;
+https://study566.ru/bpa;
+https://study566.ru/horarnay;
+https://study566.ru/vp;
+https://study566.ru/master;
+https://study566.ru/sinastriya;
+https://study566.ru/kompensat;
+https://study566.ru/taro;
+https://study566.ru/book1;
+https://study566.ru/cms/system/legal;
+https://study566.ru/pers;
+https://study566.ru/rassylki;
+https://study566.ru/sooo;
+https://study566.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>13school.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://13school.getcourse.ru;
+https://13school.getcourse.ru/login;
+https://13school.getcourse.ru/cms/system/login;
+https://13school.getcourse.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>bronzeschool.ru</t>
+  </si>
+  <si>
+    <t>https://bronzeschool.ru;
+https://bronzeschool.ru/amp;</t>
+  </si>
+  <si>
+    <t>dveimperii.com</t>
+  </si>
+  <si>
+    <t>https://dveimperii.com;
+https://dveimperii.com/;
+https://dveimperii.com/pl/lite/block-public/process;
+https://dveimperii.com/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>idanceballet.ru</t>
+  </si>
+  <si>
+    <t>https://idanceballet.ru;
+https://idanceballet.ru/index;
+https://idanceballet.ru/sitemap;
+https://idanceballet.ru/5keys&amp;amp;quot;&amp;amp;gt;Бесплатный;
+https://idanceballet.ru/onlinecoursepr&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/spina_baleriny_2.0&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/mini_kurs_tazovoe_dno&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/mini_kurs_tazovoe_dno_klimax;
+https://idanceballet.ru/sheya_koroleva&amp;amp;quot;&amp;amp;gt;&amp;amp;lt;font;
+https://idanceballet.ru/healthy-feet&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/healthyfeet2023_marafon;
+https://idanceballet.ru/zdorovie_stop2024;
+https://idanceballet.ru/slim_arms_main&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/slim_arms_aug24;
+https://idanceballet.ru/gibback_mar&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/gibback_mar\&amp;quot;;
+https://idanceballet.ru/legkayapohodka&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/legkayapohodka\&amp;quot;;
+https://idanceballet.ru/golovabolit_sale2022_аа&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/golovabolit_sale2022_аа\&amp;quot;;
+https://idanceballet.ru/face_massage&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/face_massage\&amp;quot;;
+https://idanceballet.ru/goodmorning;
+https://idanceballet.ru/newclub2_mart&amp;amp;quot;&amp;amp;gt;Клуб;
+https://idanceballet.ru/newclub2_may;
+https://idanceballet.ru/newclub2_dec2;
+https://idanceballet.ru/newclub2_mart\&amp;quot;;
+https://idanceballet.ru/club_1_0_2023&amp;amp;quot;&amp;amp;gt;Клуб;
+https://idanceballet.ru/club_1_0_2024;
+https://idanceballet.ru/club_1_0_2023\&amp;quot;;
+https://idanceballet.ru/privychkanesu&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/privychka_course;
+https://idanceballet.ru/privychkanesu\&amp;quot;;
+https://idanceballet.ru/page1525&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/page1525\&amp;quot;;
+https://idanceballet.ru/marafonbreathe&amp;amp;quot;&amp;amp;gt;&amp;amp;lt;font;
+https://idanceballet.ru/marafonbreathe\&amp;quot;;
+https://idanceballet.ru/marafonfit&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/marafonfit\&amp;quot;;
+https://idanceballet.ru/marafonplechi&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/marafonplechi\&amp;quot;;
+https://idanceballet.ru/marafonlegs&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/marafonlegs\&amp;quot;;
+https://idanceballet.ru/marafonarm&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/marafonarm\&amp;quot;;
+https://idanceballet.ru/marafonzumba&amp;amp;quot;&amp;amp;gt;Кардио-фитнес;
+https://idanceballet.ru/marafonzumba\&amp;quot;;
+https://idanceballet.ru/prodolniy_shpagat&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/prodolniy_shpagat&amp;amp;quot;&amp;amp;gt;&amp;amp;quot;Продольный;
+https://idanceballet.ru/prodolniy_shpagat\&amp;quot;;
+https://idanceballet.ru/osteoporoz&amp;amp;quot;&amp;amp;gt;Видео-тренировка&amp;amp;amp;nbsp;&amp;amp;lt;/a&amp;amp;gt;&amp;amp;lt;/font&amp;amp;gt;&amp;amp;lt;/p&amp;amp;gt;&amp;amp;lt;p;
+https://idanceballet.ru/osteoporoz&amp;amp;quot;&amp;amp;gt;&amp;amp;quot;Профилактика;
+https://idanceballet.ru/osteoporoz\&amp;quot;;
+https://idanceballet.ru/vosstanovlenie&amp;amp;quot;&amp;amp;gt;Видео-тренировка;
+https://idanceballet.ru/vosstanovlenie\&amp;quot;;
+https://idanceballet.ru/8_uprazhnenii&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/stop-oteki&amp;amp;quot;&amp;amp;gt;Курс;
+https://idanceballet.ru/stop-oteki\&amp;quot;;
+https://idanceballet.ru/page1524&amp;amp;quot;&amp;amp;gt;&amp;amp;lt;font;
+https://idanceballet.ru/page1524\&amp;quot;;
+https://idanceballet.ru/marafon-podt-jiv&amp;amp;quot;&amp;amp;gt;Марафон;
+https://idanceballet.ru/marafon-podt-jiv\&amp;quot;;
+https://idanceballet.ru/4feb-tren&amp;amp;quot;&amp;amp;gt;Тренировка;
+https://idanceballet.ru/4feb-tren\&amp;quot;;
+https://idanceballet.ru/chtm/s/metric/clarity.js;
+https://idanceballet.ru/pl/cms/layout/js;
+https://idanceballet.ru/pl/cms/layout/css;</t>
+  </si>
+  <si>
+    <t>https://t.me/anzhelikateselkina;
+https://t.me/Info_iDanceBallet_bot;</t>
+  </si>
+  <si>
+    <t>getproff.ru</t>
+  </si>
+  <si>
+    <t>https://getproff.ru;
+https://getproff.ru/;
+https://getproff.ru/pl/cms/layout/js;
+https://getproff.ru/pl/lite/block-public/process;
+https://getproff.ru/pd;
+https://getproff.ru/oferta;
+https://getproff.ru/chtm/s/metric/clarity.js;
+https://getproff.ru/pl/talks/conversation;
+https://getproff.ru/cms/system/login?required=true;
+https://getproff.ru/teach/control/stream/view/id/139029273;
+https://getproff.ru/teach/control/stream;</t>
+  </si>
+  <si>
+    <t>https://t.me/getproff;
+https://t.me/share;</t>
+  </si>
+  <si>
+    <t>peopleskill.ru</t>
+  </si>
+  <si>
+    <t>https://peopleskill.ru;</t>
+  </si>
+  <si>
+    <t>businesslife24.ru</t>
+  </si>
+  <si>
+    <t>https://businesslife24.ru;
+https://businesslife24.ru/cms/system/login;
+https://businesslife24.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>usmanovateam.ru</t>
+  </si>
+  <si>
+    <t>https://usmanovateam.ru;
+https://usmanovateam.ru/mainpage;
+https://usmanovateam.ru/moving;
+https://usmanovateam.ru/pl/cms/layout/css;
+https://usmanovateam.ru/protection_fitnes;
+https://usmanovateam.ru/oferta_fitnes;
+https://usmanovateam.ru/teach/control/stream;
+https://usmanovateam.ru/cms/system/login?required=true;
+https://usmanovateam.ru/chtm/s/metric/clarity.js;
+https://usmanovateam.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>https://t.me/GymTeamSupportBot;
+https://t.me/withusmanovakate;</t>
+  </si>
+  <si>
+    <t>5sviterov.ru</t>
+  </si>
+  <si>
+    <t>https://5sviterov.ru;</t>
+  </si>
+  <si>
+    <t>julynovosad.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://julynovosad.getcourse.ru;
+https://julynovosad.getcourse.ru/login;
+https://julynovosad.getcourse.ru/cms/system/login;
+https://julynovosad.getcourse.ru/chtm/s/metric/clarity.js;
+https://julynovosad.getcourse.ru/pl/cms/layout/css;
+https://julynovosad.getcourse.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>goltisacademy.com</t>
+  </si>
+  <si>
+    <t>goltis.com</t>
+  </si>
+  <si>
+    <t>https://goltisacademy.com;
+https://goltisacademy.com/;
+https://goltisacademy.com/pko_yak;
+https://goltisacademy.com/delfineja;
+https://goltisacademy.com/press;
+https://goltisacademy.com/popa;
+https://goltisacademy.com/osanka;
+https://goltisacademy.com/faceimpulse;
+https://goltisacademy.com/impulse-online;
+https://goltis.com/online_impulse;
+https://goltisacademy.com/a_book;
+https://goltisacademy.com/mom;
+https://goltisacademy.com/impulse2st;
+https://goltisacademy.com/trainers_obuchenie;
+https://goltisacademy.com/aquaimpulse;
+https://goltisacademy.com/impulse_detox;
+https://goltisacademy.com/impulse_stretching;
+https://goltisacademy.com/morning_impulse;
+https://goltisacademy.com/massage;
+https://goltisacademy.com/TSM.Goltis;
+https://goltisacademy.com/vk;
+https://goltisacademy.com/pl/lite/block-public/process;
+https://goltisacademy.com/chtm/s/metric/clarity.js;
+https://goltisacademy.com/express_press_secrets;</t>
+  </si>
+  <si>
+    <t>https://t.me/goltis;
+https://t.me/TSM_Goltis;</t>
+  </si>
+  <si>
+    <t>gildiya-razvitiya.ru</t>
+  </si>
+  <si>
+    <t>https://gildiya-razvitiya.ru;
+https://gildiya-razvitiya.ru/login;
+https://gildiya-razvitiya.ru/cms/system/login;
+https://gildiya-razvitiya.ru/chtm/s/metric/clarity.js;
+https://gildiya-razvitiya.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>academy.neironica.com</t>
+  </si>
+  <si>
+    <t>https://academy.neironica.com;
+https://academy.neironica.com/login;
+https://academy.neironica.com/cms/system/login;
+https://academy.neironica.com/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>zephyrmarketing.getcourse.ru</t>
+  </si>
+  <si>
+    <t>https://zephyrmarketing.getcourse.ru;
+https://zephyrmarketing.getcourse.ru/login;
+https://zephyrmarketing.getcourse.ru/cms/system/login;
+https://zephyrmarketing.getcourse.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>elaraakademia.ru</t>
+  </si>
+  <si>
+    <t>alenalaska.ru</t>
+  </si>
+  <si>
+    <t>https://elaraakademia.ru;
+https://alenalaska.ru/akademy;
+https://alenalaska.ru/mk1306;
+https://alenalaska.ru/4steps;
+https://alenalaska.ru/lenorman;
+https://alenalaska.ru/course_pr;
+https://alenalaska.ru/lenormancourse;
+https://elaraakademia.ru/oferta;</t>
+  </si>
+  <si>
+    <t>mulberryclub.online</t>
+  </si>
+  <si>
+    <t>https://mulberryclub.online;
+https://mulberryclub.online/;
+https://mulberryclub.online/test5;
+https://mulberryclub.online/do;
+https://mulberryclub.online/cms/system/legal;
+https://mulberryclub.online/pl/lite/block-public/process;
+https://mulberryclub.online/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>lms.vesbalans.ru</t>
+  </si>
+  <si>
+    <t>https://lms.vesbalans.ru;
+https://lms.vesbalans.ru/login;
+https://lms.vesbalans.ru/cms/system/login;
+https://lms.vesbalans.ru/pl/cms/layout/js;
+https://lms.vesbalans.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>iuur.ru</t>
+  </si>
+  <si>
+    <t>https://iuur.ru;
+https://iuur.ru/login;
+https://iuur.ru/cms/system/login;
+https://iuur.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>edu.finomen.academy</t>
+  </si>
+  <si>
+    <t>kutsenko-capital.ru</t>
+  </si>
+  <si>
+    <t>https://edu.finomen.academy;
+https://edu.finomen.academy/crypto-breakthrough;
+https://kutsenko-capital.ru/crypto3?utm_source=landinggk;
+https://kutsenko-capital.ru/crypto3;
+https://edu.finomen.academy/pl/lite/widget/script;
+https://kutsenko-capital.ru/privacy;
+https://kutsenko-capital.ru/agreement;
+https://kutsenko-capital.ru/agreement2;
+https://kutsenko-capital.ru/agreement3;</t>
+  </si>
+  <si>
+    <t>sovetywebmastera.pro</t>
+  </si>
+  <si>
+    <t>https://sovetywebmastera.pro;
+https://sovetywebmastera.pro/kurs;
+https://sovetywebmastera.pro/cms/system/contact;
+https://sovetywebmastera.pro/knzpp/;
+https://sovetywebmastera.pro/landing-bs/;
+https://sovetywebmastera.pro/club_affiliate/;
+https://sovetywebmastera.pro/ya_investor_reality_new/;
+https://sovetywebmastera.pro/videokurs-trafik-iz-direct_all/;
+https://sovetywebmastera.pro/videokurs-trafik-iz-vk-all/;
+https://sovetywebmastera.pro/sale-presentation-all/;
+https://sovetywebmastera.pro/videokurs-infoprodukt-all/;
+https://sovetywebmastera.pro/email_video/;
+https://sovetywebmastera.pro/komplekt-partnerskaya-avtovoronka-all/;
+https://sovetywebmastera.pro/biznes_na_partnerkah/;
+https://sovetywebmastera.pro/book_e_mail/;
+https://sovetywebmastera.pro/book_kp/;
+https://sovetywebmastera.pro/book_83_pisma/;
+https://sovetywebmastera.pro/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>edu.artemmazur.ru</t>
+  </si>
+  <si>
+    <t>https://edu.artemmazur.ru;
+https://edu.artemmazur.ru/login;
+https://edu.artemmazur.ru/cms/system/login;
+https://edu.artemmazur.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>praktiki-pro.ru</t>
+  </si>
+  <si>
+    <t>https://praktiki-pro.ru;
+https://praktiki-pro.ru/login;
+https://praktiki-pro.ru/cms/system/login;
+https://praktiki-pro.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>paulineschool.ru</t>
+  </si>
+  <si>
+    <t>https://paulineschool.ru;</t>
+  </si>
+  <si>
+    <t>schoolbykolomeytseva.ru</t>
+  </si>
+  <si>
+    <t>https://schoolbykolomeytseva.ru;
+https://schoolbykolomeytseva.ru/login;
+https://schoolbykolomeytseva.ru/cms/system/login;
+https://schoolbykolomeytseva.ru/chtm/s/metric/clarity.js;
+https://schoolbykolomeytseva.ru/pl/cms/layout/css;
+https://schoolbykolomeytseva.ru/pl/cms/layout/js;</t>
+  </si>
+  <si>
+    <t>gettravel-partners.ru</t>
+  </si>
+  <si>
+    <t>https://gettravel-partners.ru;</t>
+  </si>
+  <si>
+    <t>yoga-lessons.ru</t>
+  </si>
+  <si>
+    <t>https://yoga-lessons.ru;
+https://yoga-lessons.ru/login;
+https://yoga-lessons.ru/cms/system/login;
+https://yoga-lessons.ru/cms/system/contact;
+https://yoga-lessons.ru/chtm/s/metric/clarity.js;</t>
+  </si>
+  <si>
+    <t>academy.irina-kolosova.com</t>
+  </si>
+  <si>
+    <t>https://academy.irina-kolosova.com;
+https://academy.irina-kolosova.com/login;
+https://academy.irina-kolosova.com/cms/system/login;
+https://academy.irina-kolosova.com/pl/cms/layout/css;
+https://academy.irina-kolosova.com/pl/cms/layout/js;
+https://academy.irina-kolosova.com/chtm/s/metric/clarity.js;</t>
   </si>
 </sst>
 </file>
@@ -479,22 +1795,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="A2" sqref="A2:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="41.133" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="176.814" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="50.559" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.426" bestFit="true" customWidth="true" style="0"/>
@@ -551,18 +1867,2384 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>119</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>120</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>123</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>126</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>127</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>137</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>138</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>141</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
+        <v>143</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>147</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>181</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>183</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
+        <v>184</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
+        <v>185</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>189</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>191</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
+        <v>192</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
+        <v>195</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
+        <v>197</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
+        <v>198</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>199</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>200</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>201</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>202</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>203</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>205</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>206</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>209</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>210</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>211</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>212</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>225</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>227</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
+        <v>228</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
+        <v>230</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
+        <v>233</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
+        <v>235</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="2">
+        <v>238</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
+        <v>239</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
+        <v>240</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2">
+        <v>244</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2">
+        <v>245</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
+        <v>246</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2">
+        <v>247</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
+        <v>248</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
+        <v>249</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2">
+        <v>252</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2">
+        <v>255</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
+        <v>260</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
+        <v>261</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
+        <v>262</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2">
+        <v>263</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
+        <v>265</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
+        <v>268</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
+        <v>269</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
+        <v>270</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="2">
+        <v>271</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2">
+        <v>277</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
+        <v>278</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
+        <v>282</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
+        <v>283</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="2">
+        <v>287</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
+        <v>291</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
+        <v>367</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
+        <v>377</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
+        <v>382</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
+        <v>383</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2">
+        <v>384</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2">
+        <v>385</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2">
+        <v>386</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2">
+        <v>387</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="2">
+        <v>388</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2">
+        <v>389</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2">
+        <v>390</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2">
+        <v>397</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
